--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCCBD62-7CDC-471F-BD3E-BB0688DBF124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE41B5C0-DBD6-47C5-873E-1976249CDA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Tasks</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>OS commands and Git commands practised</t>
+  </si>
+  <si>
+    <t>Project Connected</t>
+  </si>
+  <si>
+    <t>LGA logo prepared</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -95,7 +107,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +117,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,10 +162,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,37 +480,67 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>45636</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>45637</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE41B5C0-DBD6-47C5-873E-1976249CDA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B5BB6-A5A8-4F24-8E25-F2EA31A718DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Tasks</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Learned about Pydantic library.</t>
+  </si>
+  <si>
+    <t>Practised Docker Commands.</t>
   </si>
 </sst>
 </file>
@@ -84,18 +90,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="7"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Arial Black"/>
       <family val="2"/>
@@ -106,8 +100,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6201FF"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +138,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -145,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,30 +165,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6201FF"/>
+      <color rgb="FFFF0101"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -451,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,13 +494,13 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -483,28 +508,28 @@
       <c r="A2" s="7">
         <v>45636</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -512,35 +537,56 @@
       <c r="A6" s="7">
         <v>45637</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>45638</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B5BB6-A5A8-4F24-8E25-F2EA31A718DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133AB36C-DC88-472F-A7B1-E40903A0042E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Tasks</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Practised Docker Commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practised Docker commands of containers,images </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Kubernetes CLI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kubernetes Commands </t>
   </si>
 </sst>
 </file>
@@ -157,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,12 +180,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -184,10 +187,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,10 +497,10 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -505,7 +508,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="10">
         <v>45636</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -516,7 +519,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -525,7 +528,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -534,7 +537,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="10">
         <v>45637</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -545,7 +548,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
@@ -554,7 +557,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -563,30 +566,60 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>45638</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>45642</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133AB36C-DC88-472F-A7B1-E40903A0042E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7E6B9C-F0CE-4C44-90E6-6F2F321243CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Tasks</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t xml:space="preserve">Kubernetes Commands </t>
+  </si>
+  <si>
+    <t>Prepared Excel sheet with Docker Commands</t>
+  </si>
+  <si>
+    <t>Prepared Excel sheet with Kubernetes Commands</t>
   </si>
 </sst>
 </file>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,12 +620,36 @@
         <v>7</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>45643</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7E6B9C-F0CE-4C44-90E6-6F2F321243CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF52C4B-10A2-416F-8F00-94E3EA65D97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Tasks</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Prepared Excel sheet with Kubernetes Commands</t>
+  </si>
+  <si>
+    <t>Explained about  Virtual Environment and Basic Docker File Creation</t>
+  </si>
+  <si>
+    <t>Helped Virtual Environment and Docker File creation for teammates</t>
+  </si>
+  <si>
+    <t>Error Rectified in creating virtual environment</t>
   </si>
 </sst>
 </file>
@@ -485,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,8 +652,50 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>45644</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>45649</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A11"/>

--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF52C4B-10A2-416F-8F00-94E3EA65D97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B7816-96E0-4503-8304-B7C8C7A72497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Tasks</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Error Rectified in creating virtual environment</t>
+  </si>
+  <si>
+    <t>Preparing Skill set for Docker</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,6 +210,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,8 +685,8 @@
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>7</v>
+      <c r="C23" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -690,6 +696,17 @@
       </c>
       <c r="C24" s="6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>45659</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B7816-96E0-4503-8304-B7C8C7A72497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D5CCC5-829D-4E64-AD9A-10E84E7A907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Tasks</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Preparing Skill set for Docker</t>
+  </si>
+  <si>
+    <t>Virtual env and basic dockerfile creation explained</t>
   </si>
 </sst>
 </file>
@@ -206,13 +209,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +532,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>45636</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -540,7 +543,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -549,7 +552,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -558,7 +561,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>45637</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -569,7 +572,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
@@ -578,7 +581,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -587,7 +590,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>45638</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -598,7 +601,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
@@ -607,7 +610,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>45642</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -618,7 +621,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
@@ -627,7 +630,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
@@ -636,7 +639,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="11">
         <v>45643</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -647,7 +650,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
@@ -656,10 +659,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>45644</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -670,7 +673,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
@@ -679,7 +682,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="11">
         <v>45649</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -690,7 +693,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
@@ -699,7 +702,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26" s="10">
         <v>45659</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -709,8 +712,29 @@
         <v>7</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>45660</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:A4"/>
@@ -720,5 +744,6 @@
     <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D5CCC5-829D-4E64-AD9A-10E84E7A907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30A9BA4-E78D-4FDE-A597-8B930FB9BB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="December" sheetId="1" r:id="rId1"/>
+    <sheet name="January" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Tasks</t>
   </si>
@@ -97,13 +98,58 @@
   </si>
   <si>
     <t>Virtual env and basic dockerfile creation explained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Python for Data Analytics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python Installation in Windows </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python IDE (Pycharm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Program in Python </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments, Variables, Datatypes, User-Inputs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TypeCasting, Subtypes, Problem-Solving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operators and Operands </t>
+  </si>
+  <si>
+    <t>Conditional Statements</t>
+  </si>
+  <si>
+    <t>Introduction to Python for Data Analytics</t>
+  </si>
+  <si>
+    <t>Python Installation in Windows</t>
+  </si>
+  <si>
+    <t>Python IDE (Pycharm)</t>
+  </si>
+  <si>
+    <t>First Program in Python</t>
+  </si>
+  <si>
+    <t>Comments, Variables, Datatypes, User-Inputs</t>
+  </si>
+  <si>
+    <t>TypeCasting, Subtypes, Problem-Solving</t>
+  </si>
+  <si>
+    <t>Operators and Operands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +188,14 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +226,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -187,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,6 +275,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,34 +770,58 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>45659</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A26" s="10"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
-        <v>45660</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A28" s="11"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>11</v>
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -746,4 +838,144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8F8A6-0C1B-4EE9-A7F3-676925BC8A00}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>45659</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>45660</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>45663</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30A9BA4-E78D-4FDE-A597-8B930FB9BB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040CC51E-52AD-4655-B0AD-970B0DD81A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Tasks</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>Operators and Operands</t>
+  </si>
+  <si>
+    <t>Introduction to Loops</t>
+  </si>
+  <si>
+    <t>For Loop, While Loop, Nested Loops</t>
+  </si>
+  <si>
+    <t>For Loop with Conditional Statements</t>
   </si>
 </sst>
 </file>
@@ -269,12 +278,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -285,6 +288,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +609,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="15">
         <v>45636</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -611,7 +620,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -620,7 +629,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -629,7 +638,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="15">
         <v>45637</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -640,7 +649,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
@@ -649,7 +658,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -658,7 +667,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="15">
         <v>45638</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -669,7 +678,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
@@ -678,7 +687,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="15">
         <v>45642</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -689,7 +698,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
@@ -698,7 +707,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
@@ -707,7 +716,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="15">
         <v>45643</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -718,7 +727,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
@@ -727,10 +736,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="16"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="15">
         <v>45644</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -741,7 +750,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
@@ -750,7 +759,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23" s="15">
         <v>45649</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -761,7 +770,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
@@ -772,55 +781,55 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="16"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="4"/>
       <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="4"/>
       <c r="C29" s="6"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -842,10 +851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8F8A6-0C1B-4EE9-A7F3-676925BC8A00}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,108 +882,142 @@
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="15">
         <v>45660</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="15">
         <v>45663</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>45664</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040CC51E-52AD-4655-B0AD-970B0DD81A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6112FDD6-415D-4964-9753-C814B9331176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>Tasks</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>For Loop with Conditional Statements</t>
+  </si>
+  <si>
+    <t>Break and Continue Statement</t>
+  </si>
+  <si>
+    <t>Loops Problem Solving</t>
+  </si>
+  <si>
+    <t>Introduction to Lists</t>
+  </si>
+  <si>
+    <t>Group Discussion on HMPV Virus</t>
   </si>
 </sst>
 </file>
@@ -851,10 +863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8F8A6-0C1B-4EE9-A7F3-676925BC8A00}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,18 +1018,61 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>45665</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6112FDD6-415D-4964-9753-C814B9331176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2D1885-E257-4769-82DB-8FB8BC0FD827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Tasks</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>Group Discussion on HMPV Virus</t>
+  </si>
+  <si>
+    <t>Jfrog Artifactory tutorial video</t>
+  </si>
+  <si>
+    <t>Jfrog artifactory overview is explained to devops team member</t>
+  </si>
+  <si>
+    <t>Group Discussion on Social media is good or bad in your opinion</t>
   </si>
 </sst>
 </file>
@@ -863,16 +872,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8F8A6-0C1B-4EE9-A7F3-676925BC8A00}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1067,12 +1076,42 @@
         <v>11</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>45666</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2D1885-E257-4769-82DB-8FB8BC0FD827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF973381-9A70-42A8-A39C-51BEA264454F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>Tasks</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>Group Discussion on Social media is good or bad in your opinion</t>
+  </si>
+  <si>
+    <t>Cicd Pipleine and Apache Spark Applications Video</t>
+  </si>
+  <si>
+    <t>Group Discussion about Online learning vs Traditional Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion about Docker commands with team member </t>
   </si>
 </sst>
 </file>
@@ -872,10 +881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8F8A6-0C1B-4EE9-A7F3-676925BC8A00}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,8 +1114,41 @@
         <v>11</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>45667</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A31:A33"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A16:A19"/>
@@ -1114,5 +1156,6 @@
     <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF973381-9A70-42A8-A39C-51BEA264454F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1B5F13-7FEF-42D3-8AEE-E2D5C945601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
   <si>
     <t>Tasks</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t xml:space="preserve">Discussion about Docker commands with team member </t>
+  </si>
+  <si>
+    <t>Strings in Python</t>
+  </si>
+  <si>
+    <t>Jfrog Installation Video</t>
   </si>
 </sst>
 </file>
@@ -881,10 +887,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8F8A6-0C1B-4EE9-A7F3-676925BC8A00}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,8 +1152,29 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
+        <v>45671</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A14"/>

--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1B5F13-7FEF-42D3-8AEE-E2D5C945601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EFBD16-6E93-44F8-9466-06A0C529A5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,7 +187,7 @@
     <t>Strings in Python</t>
   </si>
   <si>
-    <t>Jfrog Installation Video</t>
+    <t>Jfrog Artifactory Video</t>
   </si>
 </sst>
 </file>
@@ -890,7 +890,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EFBD16-6E93-44F8-9466-06A0C529A5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6185D5A4-EE14-4557-ADBB-1BE03C552D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>Tasks</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>Jfrog Artifactory Video</t>
+  </si>
+  <si>
+    <t>GitHub explanation for team members</t>
+  </si>
+  <si>
+    <t>Basic linux commands</t>
   </si>
 </sst>
 </file>
@@ -887,10 +893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8F8A6-0C1B-4EE9-A7F3-676925BC8A00}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,8 +1178,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="15">
+        <v>45672</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A4:A5"/>

--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6185D5A4-EE14-4557-ADBB-1BE03C552D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F31ECAB-BFDE-4E93-A3AA-71F2F4C2447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>Tasks</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Basic linux commands</t>
+  </si>
+  <si>
+    <t>File system hierarchy</t>
+  </si>
+  <si>
+    <t>Permissions and ownership</t>
   </si>
 </sst>
 </file>
@@ -893,10 +899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8F8A6-0C1B-4EE9-A7F3-676925BC8A00}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,8 +1204,38 @@
         <v>11</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
+        <v>45673</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A41:A43"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A31:A33"/>

--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F31ECAB-BFDE-4E93-A3AA-71F2F4C2447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546A09FD-B5EC-45DA-800F-E00BA1BA58F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
   <si>
     <t>Tasks</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>Permissions and ownership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project work </t>
+  </si>
+  <si>
+    <t>Git Hub tasks for Shamshad garu and Rahamathunnisa</t>
+  </si>
+  <si>
+    <t>Learned about Boto3</t>
   </si>
 </sst>
 </file>
@@ -899,10 +908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8F8A6-0C1B-4EE9-A7F3-676925BC8A00}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A45" sqref="A45:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1233,8 +1242,38 @@
         <v>7</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
+        <v>45674</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A45:A47"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A35:A36"/>

--- a/Daily_status_file.xlsx
+++ b/Daily_status_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546A09FD-B5EC-45DA-800F-E00BA1BA58F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22704575-EE73-4FDF-B2E6-646C83DDC571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
     <t>Tasks</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>Learned about Boto3</t>
+  </si>
+  <si>
+    <t>Pandas filter, groupby,drop,kept,isin, ~isin practice</t>
+  </si>
+  <si>
+    <t>AWS Glue job videos</t>
   </si>
 </sst>
 </file>
@@ -908,10 +914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8F8A6-0C1B-4EE9-A7F3-676925BC8A00}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:A47"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,18 +1277,39 @@
         <v>11</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="15">
+        <v>45677</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
